--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>CRONOGRAMA</t>
   </si>
@@ -58,9 +58,6 @@
     <t>BD:</t>
   </si>
   <si>
-    <t>HeidiSQL</t>
-  </si>
-  <si>
     <t>Atividade</t>
   </si>
   <si>
@@ -119,6 +116,15 @@
   </si>
   <si>
     <t>RF10-Busca e Filtro de Conteúdo</t>
+  </si>
+  <si>
+    <t>MySQL / MariBD</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>FAZER</t>
   </si>
 </sst>
 </file>
@@ -512,7 +518,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,23 +564,23 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -585,51 +591,57 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="7">
-        <v>45938</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="7">
-        <v>45938</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -637,16 +649,22 @@
       <c r="C12" s="7">
         <v>45938</v>
       </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -654,13 +672,16 @@
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -668,18 +689,21 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="7">
-        <v>45971</v>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -690,7 +714,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -701,24 +725,24 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="7">
-        <v>45938</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="7">
-        <v>45938</v>
+      <c r="C19" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,10 +751,10 @@
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C21" s="3">
         <v>45938</v>
@@ -738,10 +762,10 @@
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3">
         <v>45987</v>
@@ -787,6 +811,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B193D40010B88C4EAE03FF6ADC39FF02" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c1f5aee004a031ad8d482ec612ee68aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f5696fc6-079c-4304-9f74-4aa6514ab049" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a327b225c189bd181d6d1dc377ed9842" ns2:_="">
     <xsd:import namespace="f5696fc6-079c-4304-9f74-4aa6514ab049"/>
@@ -924,15 +957,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -940,6 +964,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4032183D-11D3-479D-AA7C-A73061FFA491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC001B43-F4B8-4F47-A78D-D4136142EA6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -957,14 +989,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4032183D-11D3-479D-AA7C-A73061FFA491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E41895C-CB39-4E7F-9517-EEF79AEF14D2}">
   <ds:schemaRefs>
